--- a/test/csv - 中文-utf8.xlsx
+++ b/test/csv - 中文-utf8.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ExcelToDatabase\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{045AA7CF-7695-4085-8444-CE3C2FD187FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19EB8B1-26EB-4953-81F0-834D70EF5619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="csv - 中文-utf8" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>a</t>
   </si>
@@ -51,11 +63,19 @@
   <si>
     <t>NA</t>
   </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1003,10 +1023,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1053,11 +1075,21 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="E7" t="e">
+        <f>B7*2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D8" t="e">
         <v>#NAME?</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1066,10 +1098,21 @@
       <c r="D9" t="e">
         <v>#VALUE!</v>
       </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
